--- a/Cards/AllCard.xlsx
+++ b/Cards/AllCard.xlsx
@@ -33,12 +33,6 @@
     <t>Dagon</t>
   </si>
   <si>
-    <t>Foglet</t>
-  </si>
-  <si>
-    <t>Ge'els</t>
-  </si>
-  <si>
     <t>Celaeno_Harpy</t>
   </si>
   <si>
@@ -55,9 +49,6 @@
   </si>
   <si>
     <t>Crone:Brewess</t>
-  </si>
-  <si>
-    <t>Archgriffin</t>
   </si>
   <si>
     <t>Wild_Hunt_Rider</t>
@@ -106,6 +97,18 @@
   </si>
   <si>
     <t>Geralt:Igni</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foglet</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ge'els</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Archgriffin</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1027,7 +1030,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1053,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1061,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1069,7 +1072,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1077,7 +1080,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1085,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1101,12 +1104,15 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1118,83 +1124,86 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Cards/AllCard.xlsx
+++ b/Cards/AllCard.xlsx
@@ -19,96 +19,140 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t>Biting_Frost</t>
+  </si>
+  <si>
+    <t>Impenetrable_Frog</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lacerate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thunderbolt_Potion</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commander's_Horn</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roach</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geralt:Igni</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foglet</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bekker's_Twisted_Mirror</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ge'els</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Torrential_Rain</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dagon</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harpy</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harpy_Egg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unseen_Elder</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Celaeno_Harpy</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Woodland_Spirit</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rabid_Wolf</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lesser_Earth_Elemental</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earth_Elemental</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crone:Whispess</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crone:Weavess</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crone:Brewess</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Archgriffin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wild_Hunt_Rider</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Caranthir</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frightener</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arachas</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arachas_Hatchling</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vran_Warrior</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arachas_Behemoth</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clear_Skies</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rally</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
   <si>
     <t>First_Light</t>
-  </si>
-  <si>
-    <t>Biting_Frost</t>
-  </si>
-  <si>
-    <t>Torrential_Rain</t>
-  </si>
-  <si>
-    <t>Dagon</t>
-  </si>
-  <si>
-    <t>Celaeno_Harpy</t>
-  </si>
-  <si>
-    <t>Woodland_Spirit</t>
-  </si>
-  <si>
-    <t>Earth_Elemental</t>
-  </si>
-  <si>
-    <t>Crone:Weavess</t>
-  </si>
-  <si>
-    <t>Crone:Whispess</t>
-  </si>
-  <si>
-    <t>Crone:Brewess</t>
-  </si>
-  <si>
-    <t>Wild_Hunt_Rider</t>
-  </si>
-  <si>
-    <t>Caranthir</t>
-  </si>
-  <si>
-    <t>Frightener</t>
-  </si>
-  <si>
-    <t>Unseen_Elder</t>
-  </si>
-  <si>
-    <t>Arachas</t>
-  </si>
-  <si>
-    <t>Vran_Warrior</t>
-  </si>
-  <si>
-    <t>Arachas_Behemoth</t>
-  </si>
-  <si>
-    <t>Impenetrable_Frog</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lacerate</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thunderbolt_Potion</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Commander's_Horn</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bekker's_Twisted_Mirror</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Roach</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geralt:Igni</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Foglet</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ge'els</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Archgriffin</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1027,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1038,176 +1082,263 @@
     <col min="3" max="3" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
       <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>